--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -451,155 +451,205 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>27.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.6188</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>74.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7584</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.53</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6918</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>121006</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C5" t="inlineStr">
         <is>
           <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>72.13</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>4.99</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5010</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>121005</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银创新动力混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>87.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>161219</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国投瑞银新兴产业混合(LOF)</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>74.23</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001218</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>86.88</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>6.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
-      </c>
-    </row>
     <row r="6">
-      <c r="A6" s="1" t="n">
+      <c r="A6" s="2" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
@@ -614,20 +664,30 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>93.84</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>3.84</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0553</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>9</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="n">
+      <c r="A7" s="2" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
@@ -642,20 +702,30 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0272</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="n">
+      <c r="A8" s="2" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="inlineStr">
@@ -670,20 +740,30 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>93.21</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1.79</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -693,7 +773,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,15 +794,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -734,26 +824,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>121006</t>
+          <t>121005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银稳健增长混合</t>
+          <t>国投瑞银创新动力混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>74.70</t>
+          <t>21.45</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>7.94</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>2</v>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0056</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -762,26 +862,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>121005</t>
+          <t>010338</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银创新动力混合</t>
+          <t>国投瑞银远见成长混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>84.97</t>
+          <t>19.28</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.35</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8850</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -800,15 +910,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>10.79</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>73.49</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>7.29</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7866</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -818,26 +938,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>009989</t>
+          <t>001218</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>华宝研究精选混合</t>
+          <t>国投瑞银精选收益灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>82.52</t>
+          <t>7.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.00</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>88.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.7011</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -846,26 +976,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010338</t>
+          <t>009989</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合A</t>
+          <t>华宝研究精选混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>22.03</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>4</v>
+          <t>82.52</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.6609</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="7">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>010339</t>
+          <t>010423</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>国投瑞银远见成长混合C</t>
+          <t>国投瑞银价值成长一年持有期混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>59.35</t>
+          <t>8.70</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.59</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.6455</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -902,25 +1052,35 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>010423</t>
+          <t>121006</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合A</t>
+          <t>国投瑞银稳健增长混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>7.92</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
+          <t>74.70</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.6288</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>010424</t>
+          <t>005660</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>国投瑞银价值成长一年持有期混合C</t>
+          <t>嘉实资源精选股票A</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>74.94</t>
+          <t>4.76</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.42</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1642</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="10">
@@ -958,26 +1128,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>010613</t>
+          <t>001387</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合A</t>
+          <t>中融新经济灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>80.91</t>
+          <t>2.92</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.77</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1183</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -986,25 +1166,35 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>010614</t>
+          <t>010613</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>中融产业趋势一年定期开放混合C</t>
+          <t>中融产业趋势一年定期开放混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>80.91</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>2.77</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0958</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>10</v>
       </c>
     </row>
@@ -1014,26 +1204,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>001218</t>
+          <t>010339</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>国投瑞银精选收益灵活配置混合</t>
+          <t>国投瑞银远见成长混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.37</t>
+          <t>2.03</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>9.36</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>1</v>
+          <t>59.35</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0932</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="13">
@@ -1042,25 +1242,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001387</t>
+          <t>001701</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合A</t>
+          <t>中融产业升级灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>1.80</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
+          <t>92.21</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1070,26 +1280,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>001388</t>
+          <t>010424</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中融新经济灵活配置混合C</t>
+          <t>国投瑞银价值成长一年持有期混合C</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>91.68</t>
+          <t>0.66</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>4.05</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>9</v>
+          <t>74.94</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0490</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -1098,25 +1318,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>001701</t>
+          <t>005661</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>中融产业升级灵活配置混合</t>
+          <t>嘉实资源精选股票C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>92.21</t>
+          <t>1.40</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.47</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>90.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.45</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0483</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1136,15 +1366,25 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
           <t>94.36</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>2.88</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0452</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1154,25 +1394,35 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>001908</t>
+          <t>001388</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>国投瑞银境煊灵活配置混合C</t>
+          <t>中融新经济灵活配置混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>94.36</t>
+          <t>0.85</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>2.88</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1182,25 +1432,35 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>005660</t>
+          <t>001908</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票A</t>
+          <t>国投瑞银境煊灵活配置混合C</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.41</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
+          <t>94.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1210,26 +1470,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005661</t>
+          <t>010614</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>嘉实资源精选股票C</t>
+          <t>中融产业趋势一年定期开放混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>90.15</t>
+          <t>0.35</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>3.45</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>9</v>
+          <t>80.91</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1505,4 +1506,402 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>20.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>83.40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.8282</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.8477</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.13</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.63</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7172</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>6.88</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>86.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.69</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>8.73</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5901</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.02</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>71.73</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.5742</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>68.43</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0855</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>76.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0446</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515510</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证500成长估值ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>97.78</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.11</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1904,4 +1905,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.91</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4452</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010338</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>13.57</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.9418</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>73.79</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.6287</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010423</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>8.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5386</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>121006</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国投瑞银稳健增长混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.17</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.12</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.5248</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.89</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3796</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2217</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>007202</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>天弘优质成长企业精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>82.50</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2193</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.98</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>69.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1852</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010339</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>国投瑞银远见成长混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0937</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>85.05</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0459</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010424</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>国投瑞银价值成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0412</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2455,4 +2456,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>18</v>
+      </c>
+      <c r="D4" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2464,7 +2465,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2475,17 +2476,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2495,14 +2516,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>5.47</v>
+          <t>121005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银创新动力混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>16.43</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>86.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5997</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2511,14 +2554,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>9</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.29</v>
+          <t>161219</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银新兴产业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.46</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.4035</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2527,14 +2592,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>18</v>
-      </c>
-      <c r="D4" t="n">
-        <v>7.05</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3564</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="5">
@@ -2543,13 +2630,339 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2551</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.31</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2026</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001218</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国投瑞银精选收益灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1483</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0600</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>000892</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002028</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>九泰天宝灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.14</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>5.47</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>9</v>
+      </c>
+      <c r="D4" t="n">
+        <v>5.29</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>18</v>
+      </c>
+      <c r="D5" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>7</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2861,7 +2862,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2872,17 +2873,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2892,14 +2913,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>2.03</v>
+          <t>420005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>天弘周期策略混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -2908,14 +2951,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>5.47</v>
+          <t>420001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>71.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1683</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -2924,14 +2989,120 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0567</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>9</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.03</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>5.29</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="5">
@@ -2940,14 +3111,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D5" t="n">
-        <v>7.05</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="6">
@@ -2956,13 +3127,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>18</v>
+      </c>
+      <c r="D6" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>7</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.67</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
+++ b/数据整理/stocks/A股/深证主板/002375-亚厦股份.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3032,7 +3033,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3043,17 +3044,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -3063,14 +3084,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>005632</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华量化先锋混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.00</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -3079,14 +3174,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>2.03</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="4">
@@ -3095,14 +3190,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D4" t="n">
-        <v>5.47</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="5">
@@ -3111,14 +3206,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>5.29</v>
+        <v>5.47</v>
       </c>
     </row>
     <row r="6">
@@ -3127,14 +3222,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="D6" t="n">
-        <v>7.05</v>
+        <v>5.29</v>
       </c>
     </row>
     <row r="7">
@@ -3143,13 +3238,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>18</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.05</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>7</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.67</v>
       </c>
     </row>
